--- a/Datos/Database by set/Set with text box/Xlsx sets/Throne of Eldraine Tokens (TELD).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Throne of Eldraine Tokens (TELD).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A69"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,476 +444,119 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bear</t>
+          <t>('Bear', ['Token Creature — Bear', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Token Creature — Bear</t>
+          <t>('Boar', ['Token Creature — Boar', 'When this creature dies, create a Food token.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>('Dwarf', ['Token Creature — Dwarf', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Boar</t>
+          <t>('Faerie', ['Token Creature — Faerie', 'Flying', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Token Creature — Boar</t>
+          <t>('Food', ['Token Artifact — Food', '{2}, {T}, Sacrifice this artifact: You gain 3 life.'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>When this creature dies, create a Food token.</t>
+          <t>('Garruk, Cursed Huntsman Emblem', ['Emblem', 'Creatures you control get +3/+3 and have trample.'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>('Giant', ['Token Creature — Giant', '7/7'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dwarf</t>
+          <t>('Goat', ['Token Creature — Goat', '0/1'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Token Creature — Dwarf</t>
+          <t>('Human', ['Token Creature — Human', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>('Human Cleric', ['Token Creature — Human Cleric', 'Lifelink, haste', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Faerie</t>
+          <t>('Human Rogue', ['Token Creature — Human Rogue', 'Haste', 'When this creature enters the battlefield, it deals 1 damage to any target.', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Token Creature — Faerie</t>
+          <t>('Human Warrior', ['Token Creature — Human Warrior', 'Trample, haste', '3/1'])</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>('Knight', ['Token Creature — Knight', 'Vigilance', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>('Mouse', ['Token Creature — Mouse', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>('On an Adventure', ['Card', 'After an Adventure resolves, you can place the exiled card here. You may cast the creature from exile.'])</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Token Artifact — Food</t>
+          <t>('Rat', ['Token Creature — Rat', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>{2}, {T}, Sacrifice this artifact: You gain 3 life.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Token Artifact — Food</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>{2}, {T}, Sacrifice this artifact: You gain 3 life.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Token Artifact — Food</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>{2}, {T}, Sacrifice this artifact: You gain 3 life.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Token Artifact — Food</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>{2}, {T}, Sacrifice this artifact: You gain 3 life.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Garruk, Cursed Huntsman Emblem</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Emblem</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Creatures you control get +3/+3 and have trample.</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Giant</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Token Creature — Giant</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>7/7</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Goat</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Token Creature — Goat</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Human</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Token Creature — Human</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Human Cleric</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Token Creature — Human Cleric</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Lifelink, haste</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Human Rogue</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Token Creature — Human Rogue</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Haste</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>When this creature enters the battlefield, it deals 1 damage to any target.</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Human Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Token Creature — Human Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Trample, haste</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>3/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Knight</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Token Creature — Knight</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Vigilance</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Mouse</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Token Creature — Mouse</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>On an Adventure</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>After an Adventure resolves, you can place the exiled card here. You may cast the creature from exile.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Rat</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Token Creature — Rat</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Wolf</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Token Creature — Wolf</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>When this creature dies, put a loyalty counter on each Garruk you control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>2/2</t>
+          <t>('Wolf', ['Token Creature — Wolf', 'When this creature dies, put a loyalty counter on each Garruk you control.', '2/2'])</t>
         </is>
       </c>
     </row>
